--- a/12_ブース設計図/使用材料表.xlsx
+++ b/12_ブース設計図/使用材料表.xlsx
@@ -212,9 +212,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
-    <numFmt numFmtId="186" formatCode="0&quot;個&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="0&quot;個&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -483,12 +483,36 @@
     <xf numFmtId="6" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,30 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -545,7 +545,7 @@
         <name val="游ゴシック"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="178" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+      <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -569,7 +569,7 @@
         <name val="游ゴシック"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="187" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+      <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -629,65 +629,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode="0&quot;個&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -713,6 +654,88 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0&quot;個&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -747,29 +770,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -784,21 +784,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:G21" totalsRowCount="1" headerRowDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:G21" totalsRowCount="1" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B3:G20"/>
   <tableColumns count="6">
     <tableColumn id="1" name="商品名" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="単価" dataDxfId="5" totalsRowDxfId="3" dataCellStyle="通貨"/>
-    <tableColumn id="3" name="数" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="単価" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="通貨"/>
+    <tableColumn id="3" name="数" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="4" name="合計" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E4:E20)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="割り勘額(7人)" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="5" name="割り勘額(7人)" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>テーブル2[[#This Row],[合計]]/7</calculatedColumnFormula>
       <totalsRowFormula>SUM(F4:F20)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="持ち込み担当" dataDxfId="9"/>
+    <tableColumn id="6" name="持ち込み担当" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1070,7 +1070,7 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1085,14 +1085,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
@@ -1118,21 +1118,21 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>20</v>
       </c>
-      <c r="E4" s="15">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="E4" s="12">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1140,21 +1140,21 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1162,21 +1162,21 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>70</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>280</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>40</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1184,21 +1184,21 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="E7" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1206,21 +1206,21 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>100</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>4</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>400</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>57.142857142857146</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1228,21 +1228,21 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="E9" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1250,21 +1250,21 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="E10" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1272,21 +1272,21 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1294,21 +1294,21 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1316,21 +1316,21 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
         <v>4</v>
       </c>
-      <c r="E13" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="E13" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1338,21 +1338,21 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1360,21 +1360,21 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
         <v>4</v>
       </c>
-      <c r="E15" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="E15" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1382,21 +1382,21 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
         <v>2</v>
       </c>
-      <c r="E16" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1404,21 +1404,21 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21">
-        <v>1500</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="18">
+        <v>600</v>
+      </c>
+      <c r="D17" s="15">
         <v>4</v>
       </c>
-      <c r="E17" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>6000</v>
-      </c>
-      <c r="F17" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>857.14285714285711</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>2400</v>
+      </c>
+      <c r="F17" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>342.85714285714283</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1426,21 +1426,21 @@
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>1598</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>1598</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>228.28571428571428</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1448,21 +1448,21 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1470,21 +1470,21 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="21">
-        <v>1500</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
         <v>4</v>
       </c>
-      <c r="E20" s="16">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>6000</v>
-      </c>
-      <c r="F20" s="16">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>857.14285714285711</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="E20" s="13">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
       <c r="D21" s="7"/>
       <c r="E21" s="9">
         <f>SUM(E4:E20)</f>
-        <v>14278</v>
+        <v>4678</v>
       </c>
       <c r="F21" s="10">
         <f>SUM(F4:F20)</f>
-        <v>2039.7142857142856</v>
+        <v>668.28571428571422</v>
       </c>
     </row>
   </sheetData>

--- a/12_ブース設計図/使用材料表.xlsx
+++ b/12_ブース設計図/使用材料表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
@@ -109,13 +109,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>予備コントローラー</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Webカメラ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -166,14 +159,6 @@
     <t>荘司</t>
   </si>
   <si>
-    <t>ワインセラー(ダ)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>シャンデリア(ダ)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ピンポン玉(6個入り)</t>
     <rPh sb="4" eb="5">
       <t>ダマ</t>
@@ -204,19 +189,35 @@
   </si>
   <si>
     <t>学校</t>
+  </si>
+  <si>
+    <t>マウス材料(木材)</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(仮)</t>
+    <rPh sb="1" eb="2">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0&quot;個&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +283,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -296,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -424,7 +433,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -434,14 +443,92 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left/>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -455,13 +542,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -474,53 +558,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -528,24 +636,8 @@
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -554,22 +646,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -578,54 +654,35 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="1" outline="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal style="thin">
-          <color auto="1"/>
-        </diagonal>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="1" outline="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal style="thin">
-          <color auto="1"/>
-        </diagonal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="1" outline="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
-        <diagonal style="thin">
-          <color auto="1"/>
-        </diagonal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -650,7 +707,9 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -702,6 +761,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -784,21 +844,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:G21" totalsRowCount="1" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B3:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:G19" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B3:G19"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="商品名" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="単価" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="通貨"/>
-    <tableColumn id="3" name="数" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="合計" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="1" name="商品名" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="単価" dataDxfId="10" totalsRowDxfId="4" dataCellStyle="通貨"/>
+    <tableColumn id="3" name="数" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="合計" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(E4:E20)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="割り勘額(7人)" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+    <tableColumn id="5" name="割り勘額(7人)" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>テーブル2[[#This Row],[合計]]/7</calculatedColumnFormula>
-      <totalsRowFormula>SUM(F4:F20)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="持ち込み担当" dataDxfId="5"/>
+    <tableColumn id="6" name="持ち込み担当" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1067,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1083,423 +1141,383 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="11">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18">
-        <v>70</v>
-      </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="E6" s="6">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>280</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>40</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E14" s="6">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F14" s="6">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11">
+        <v>500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
+        <v>2000</v>
+      </c>
+      <c r="F15" s="6">
+        <f>テーブル2[[#This Row],[合計]]/7</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="18">
-        <v>100</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C16" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E16" s="6">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>400</v>
-      </c>
-      <c r="F8" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="6">
         <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>57.142857142857146</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1598</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="18">
-        <v>600</v>
-      </c>
-      <c r="D17" s="15">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>2400</v>
-      </c>
-      <c r="F17" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>342.85714285714283</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1598</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="E17" s="6">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>1598</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F17" s="6">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>228.28571428571428</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
         <v>4</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E18" s="26">
         <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
         <v>0</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F18" s="26">
         <f>テーブル2[[#This Row],[合計]]/7</f>
         <v>0</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="13">
-        <f>テーブル2[[#This Row],[単価]]*テーブル2[[#This Row],[数]]</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <f>テーブル2[[#This Row],[合計]]/7</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9">
-        <f>SUM(E4:E20)</f>
-        <v>4678</v>
-      </c>
-      <c r="F21" s="10">
-        <f>SUM(F4:F20)</f>
-        <v>668.28571428571422</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23">
+        <f>SUM(E4:E18)</f>
+        <v>13878</v>
+      </c>
+      <c r="F19" s="23">
+        <f>SUM(F4:F18)</f>
+        <v>1982.5714285714287</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1507,7 +1525,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G8 G9:G18">
       <formula1>"各自,丹羽,佐野,佐藤,小林,山下,荘司,荒谷,購入,学校,作成,無料"</formula1>
     </dataValidation>
   </dataValidations>
